--- a/RouletteStrategy/RegressionAnalysis.xlsx
+++ b/RouletteStrategy/RegressionAnalysis.xlsx
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Looks like an exponential function</t>
   </si>
   <si>
     <t>Constant base, variable exponent</t>
+  </si>
+  <si>
+    <t>Roll</t>
   </si>
   <si>
     <t>Bet</t>
@@ -51,6 +54,54 @@
   </si>
   <si>
     <t>Grey line: ceiling of upper bound</t>
+  </si>
+  <si>
+    <t>Payout</t>
+  </si>
+  <si>
+    <t>Min Bet</t>
+  </si>
+  <si>
+    <t>Max Bet</t>
+  </si>
+  <si>
+    <t>Board Hits</t>
+  </si>
+  <si>
+    <t>*All with break evens allowed</t>
+  </si>
+  <si>
+    <t>The lower bound line should work like lower bound rolls</t>
+  </si>
+  <si>
+    <t>upper bound could be lower bound plus min bet times payout factor</t>
+  </si>
+  <si>
+    <t>Testing with 1 to 50 Columns:</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>1 to 20 with lines</t>
+  </si>
+  <si>
+    <t>y = (1/2) * (1 + (1/2)^x</t>
+  </si>
+  <si>
+    <t>y = (1/2) * (1 + (1/5)^x</t>
+  </si>
+  <si>
+    <t>Should be able to use this equation up until the stake where the roll is limited due to the max bet</t>
+  </si>
+  <si>
+    <t>Actually don't even need a lower bound because of the way the algorithm works, we just need an upper bound</t>
+  </si>
+  <si>
+    <t>Possible Upper Bound?</t>
+  </si>
+  <si>
+    <t>y = (1.5^x)</t>
   </si>
 </sst>
 </file>
@@ -74,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,12 +133,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,7 +236,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$27:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -241,7 +305,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:f>Sheet1!$B$27:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -332,7 +396,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$27:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -401,7 +465,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$21</c:f>
+              <c:f>Sheet1!$C$27:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -492,7 +556,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$27:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -561,7 +625,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$21</c:f>
+              <c:f>Sheet1!$D$27:$D$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -830,7 +894,1121 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$53:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7BA2-4957-9C09-9D6F456C56B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$53:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$53:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.53125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.796875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6953125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.54296875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.814453125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.2216796875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.83251953125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.248779296875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64.8731689453125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7BA2-4957-9C09-9D6F456C56B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="599660896"/>
+        <c:axId val="599664176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="599660896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599664176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="599664176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599660896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$67:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$67:$B$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F673-4CA1-BB28-32AE879B4849}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$67:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$67:$C$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0367999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2441599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4929919999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7915903999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1499084799999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5798901759999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0958682111999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7150418534399994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4580502241279989</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.349660268953599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.4195923227443181</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.7035107872931823</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.2442129447518173</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.093055533702181</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.311666640442617</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.973999968531141</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.168799962237369</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F673-4CA1-BB28-32AE879B4849}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="464678976"/>
+        <c:axId val="464679960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="464678976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464679960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="464679960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464678976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1386,19 +2564,1051 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1419,6 +3629,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E7C9B4D-191C-4676-A9E6-BF514CDC3462}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9831328E-C630-4EC0-8CAF-5B6F74B644B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1724,365 +4006,1026 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="35.28515625" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f>(0.5345405936)*(1.190684898^A2) - 1</f>
-        <v>-0.36353058783252457</v>
-      </c>
-      <c r="D2">
-        <f>(0.5345405936)*(1.190684898^A2) + 8</f>
-        <v>8.6364694121674752</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C21" si="0">(0.5345405936)*(1.190684898^A3) - 1</f>
-        <v>-0.24216548289324957</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D21" si="1">(0.5345405936)*(1.190684898^A3) + 8</f>
-        <v>8.7578345171067511</v>
-      </c>
-      <c r="N3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>-9.7657885297869673E-2</v>
+        <f>(1/2)*(1.5^A4)</f>
+        <v>0.75</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
-        <v>8.9023421147021295</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <f>1.5^A4</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>7.4405128805210552E-2</v>
+        <f t="shared" ref="C5:C15" si="0">(1/2)*(1.5^A5)</f>
+        <v>1.125</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
-        <v>9.0744051288052106</v>
-      </c>
-      <c r="N5" t="s">
+        <f t="shared" ref="D5:D15" si="1">1.5^A5</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.27927796120210902</v>
+        <v>1.6875</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>9.2792779612021086</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3.375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0.52321694874758107</v>
+        <v>2.53125</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>9.5232169487475815</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5.0625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0.81367141725138459</v>
+        <v>3.796875</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>9.8136714172513848</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7.59375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>1.1595111664554807</v>
+        <v>5.6953125</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>10.159511166455481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>11.390625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>1.571297332960905</v>
+        <v>8.54296875</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>10.571297332960905</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>17.0859375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>2.0616049026242269</v>
+        <v>12.814453125</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>11.061604902624227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>25.62890625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>2.6454067211974279</v>
+        <v>19.2216796875</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>11.645406721197428</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>38.443359375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>3.3405307299974742</v>
+        <v>28.83251953125</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>12.340530729997475</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
+        <v>57.6650390625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <v>38</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>4.1682043895129084</v>
+        <v>43.248779296875</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>13.168204389512908</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>86.49755859375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>5.153702916370329</v>
+        <v>64.8731689453125</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
+        <v>129.746337890625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f>(0.5345405936)*(1.190684898^A27) - 1</f>
+        <v>-0.36353058783252457</v>
+      </c>
+      <c r="D27">
+        <f>(0.5345405936)*(1.190684898^A27) + 8</f>
+        <v>8.6364694121674752</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:C46" si="2">(0.5345405936)*(1.190684898^A28) - 1</f>
+        <v>-0.24216548289324957</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:D46" si="3">(0.5345405936)*(1.190684898^A28) + 8</f>
+        <v>8.7578345171067511</v>
+      </c>
+      <c r="N28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>-9.7657885297869673E-2</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>8.9023421147021295</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>7.4405128805210552E-2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>9.0744051288052106</v>
+      </c>
+      <c r="N30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>0.27927796120210902</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>9.2792779612021086</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>0.52321694874758107</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>9.5232169487475815</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>0.81367141725138459</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>9.8136714172513848</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>1.1595111664554807</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>10.159511166455481</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>1.571297332960905</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>10.571297332960905</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>2.0616049026242269</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="3"/>
+        <v>11.061604902624227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>2.6454067211974279</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>11.645406721197428</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>12</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>3.3405307299974742</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>12.340530729997475</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>4.1682043895129084</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>13.168204389512908</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>14</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>5.153702916370329</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="3"/>
         <v>14.153702916370328</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B41">
         <v>7</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
+      <c r="C41">
+        <f t="shared" si="2"/>
         <v>6.3271211293007079</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
+      <c r="D41">
+        <f t="shared" si="3"/>
         <v>15.327121129300707</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B42">
         <v>8</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
+      <c r="C42">
+        <f t="shared" si="2"/>
         <v>7.7242924744750585</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
+      <c r="D42">
+        <f t="shared" si="3"/>
         <v>16.724292474475057</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B43">
         <v>12</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
+      <c r="C43">
+        <f t="shared" si="2"/>
         <v>9.3878832950925037</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
+      <c r="D43">
+        <f t="shared" si="3"/>
         <v>18.387883295092504</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>18</v>
+      </c>
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="2"/>
+        <v>11.368695761653122</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="3"/>
+        <v>20.368695761653122</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>19</v>
+      </c>
+      <c r="B45">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="2"/>
+        <v>13.727219251356978</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="3"/>
+        <v>22.727219251356978</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="2"/>
+        <v>16.53547755212562</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="3"/>
+        <v>25.53547755212562</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <f>(1/2)*(1.5^A53)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ref="C54:C64" si="4">(1/2)*(1.5^A54)</f>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="4"/>
+        <v>1.6875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="4"/>
+        <v>2.53125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="4"/>
+        <v>3.796875</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="4"/>
+        <v>5.6953125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="4"/>
+        <v>8.54296875</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="4"/>
+        <v>12.814453125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>14</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="4"/>
+        <v>19.2216796875</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>10</v>
+      </c>
+      <c r="B62">
+        <v>21</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="4"/>
+        <v>28.83251953125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>11</v>
+      </c>
+      <c r="B63" s="1">
+        <v>38</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="4"/>
+        <v>43.248779296875</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>12</v>
+      </c>
+      <c r="B64">
+        <v>50</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="4"/>
+        <v>64.8731689453125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <f>(1/2)*(1.2^A67)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68:C86" si="5">(1/2)*(1.2^A68)</f>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="5"/>
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="5"/>
+        <v>1.0367999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="5"/>
+        <v>1.2441599999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="5"/>
+        <v>1.4929919999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>7</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="5"/>
+        <v>1.7915903999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>8</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="5"/>
+        <v>2.1499084799999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>9</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="5"/>
+        <v>2.5798901759999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>10</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="5"/>
+        <v>3.0958682111999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>11</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="5"/>
+        <v>3.7150418534399994</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>12</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="5"/>
+        <v>4.4580502241279989</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>13</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="5"/>
+        <v>5.349660268953599</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>14</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="5"/>
+        <v>6.4195923227443181</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>15</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="5"/>
+        <v>7.7035107872931823</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>16</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="5"/>
+        <v>9.2442129447518173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>17</v>
+      </c>
+      <c r="B83" s="1">
+        <v>12</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="5"/>
+        <v>11.093055533702181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B84">
         <v>20</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>11.368695761653122</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>20.368695761653122</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="C84">
+        <f t="shared" si="5"/>
+        <v>13.311666640442617</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B85">
         <v>20</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>13.727219251356978</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>22.727219251356978</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="C85">
+        <f t="shared" si="5"/>
+        <v>15.973999968531141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B86">
         <v>20</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>16.53547755212562</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>25.53547755212562</v>
+      <c r="C86">
+        <f t="shared" si="5"/>
+        <v>19.168799962237369</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C87" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/RouletteStrategy/RegressionAnalysis.xlsx
+++ b/RouletteStrategy/RegressionAnalysis.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>Looks like an exponential function</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>y =(1 + (1/1))^x</t>
+  </si>
+  <si>
+    <t>1 to 25 Corners</t>
   </si>
 </sst>
 </file>
@@ -14751,10 +14754,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H135" sqref="H135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17113,6 +17116,31 @@
         <v>20</v>
       </c>
     </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" t="s">
+        <v>36</v>
+      </c>
+      <c r="D140" t="s">
+        <v>26</v>
+      </c>
+      <c r="E140" t="s">
+        <v>25</v>
+      </c>
+      <c r="F140" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/RouletteStrategy/RegressionAnalysis.xlsx
+++ b/RouletteStrategy/RegressionAnalysis.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Dabbling with data" sheetId="1" r:id="rId1"/>
     <sheet name="Finding upper bound eq" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>Looks like an exponential function</t>
   </si>
@@ -99,19 +100,10 @@
     <t>Actually don't even need a lower bound because of the way the algorithm works, we just need an upper bound</t>
   </si>
   <si>
-    <t>Possible Upper Bound?</t>
-  </si>
-  <si>
     <t>y = (1 + (1/5))^x</t>
   </si>
   <si>
-    <t>y = (1-(1/5)) * (1 + (1/5)^x</t>
-  </si>
-  <si>
     <t>1 to 20 Lines (6 spots, 5 to 1 payout):</t>
-  </si>
-  <si>
-    <t>y = (1-(1/8)) * (1 + (1/8)^x</t>
   </si>
   <si>
     <t>y = (1 + (1/8))^x</t>
@@ -121,9 +113,6 @@
   </si>
   <si>
     <t>1 to 25 Columns (12 spots, 2 to 1 payout, 0.25 increment)</t>
-  </si>
-  <si>
-    <t>y = (1-(1/2)) * (1 + (1/2)^x</t>
   </si>
   <si>
     <t>y = (1 + (1/2))^x</t>
@@ -138,19 +127,28 @@
     <t>Solution (no break evens)</t>
   </si>
   <si>
-    <t>1 to 75 Columns (12 spots, 2 to 1 payout, 1-2 solutions below max):</t>
+    <t>Min 1, Max 10, Inc 1, Payout 17, Spots 2</t>
   </si>
   <si>
-    <t>1 to 20 Lines (6 spots, 5 to 1 payout, lower bound solutions):</t>
+    <t>Rolls</t>
   </si>
   <si>
-    <t>y =(1 + (1/4))^x</t>
+    <t>Last Solution</t>
   </si>
   <si>
-    <t>y =(1 + (1/1))^x</t>
+    <t>y = (1/3) * (1 + (1/2))^x</t>
   </si>
   <si>
-    <t>1 to 25 Corners</t>
+    <t>Cum Stake</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>y = (7/10) * (1 + (1/2))^x</t>
+  </si>
+  <si>
+    <t>y = (8/10) * (1 + (1/5))^x</t>
   </si>
 </sst>
 </file>
@@ -865,961 +863,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="596720088"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Finding upper bound eq'!$A$120:$A$136</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Finding upper bound eq'!$B$120:$B$136</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D33B-4728-BE05-8C4F190CC475}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Finding upper bound eq'!$A$120:$A$136</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Finding upper bound eq'!$C$120:$C$136</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D33B-4728-BE05-8C4F190CC475}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Finding upper bound eq'!$A$120:$A$136</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Finding upper bound eq'!$D$120:$D$136</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1519999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3824000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6588799999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.990656</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3887871999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8665446399999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.4398535679999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.1278242815999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.9533891379199995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.9440669655039997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.1328803586047984</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.5594564303257581</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.27134771639091</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12.325617259669093</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14.790740711602908</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.748888853923489</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D33B-4728-BE05-8C4F190CC475}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Finding upper bound eq'!$A$120:$A$136</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Finding upper bound eq'!$E$120:$E$136</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.44</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.728</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0735999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4883199999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9859839999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5831807999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.2998169599999994</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.1597803519999994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.1917364223999991</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.4300837068799988</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.9161004482559978</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.699320537907198</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12.839184645488636</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.407021574586365</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.488425889503635</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>22.186111067404362</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D33B-4728-BE05-8C4F190CC475}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Finding upper bound eq'!$A$120:$A$136</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Finding upper bound eq'!$F$120:$F$136</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.953125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.44140625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0517578125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.814697265625</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.76837158203125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.9604644775390625</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.4505805969238281</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.3132257461547852</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.641532182693481</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.551915228366852</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18.189894035458565</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D33B-4728-BE05-8C4F190CC475}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="610031608"/>
-        <c:axId val="610030296"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="610031608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="610030296"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="610030296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="610031608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3000,696 +2043,6 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Finding upper bound eq'!$A$4:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Finding upper bound eq'!$B$4:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C98D-4BFD-A60B-146357C512B4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Finding upper bound eq'!$A$4:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Finding upper bound eq'!$C$4:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C98D-4BFD-A60B-146357C512B4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Finding upper bound eq'!$A$4:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Finding upper bound eq'!$D$4:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.53125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.796875</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.6953125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.54296875</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.814453125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19.2216796875</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28.83251953125</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43.248779296875</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>64.8731689453125</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C98D-4BFD-A60B-146357C512B4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Finding upper bound eq'!$A$4:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Finding upper bound eq'!$E$4:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.59375</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.390625</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17.0859375</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25.62890625</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>38.443359375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>57.6650390625</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>86.49755859375</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>129.746337890625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C98D-4BFD-A60B-146357C512B4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="607693464"/>
-        <c:axId val="607691824"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="607693464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="607691824"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="607691824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="607693464"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
               <c:f>'Finding upper bound eq'!$A$19:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -4081,64 +2434,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.96</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1519999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3824000000000001</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6588799999999999</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.990656</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3887871999999999</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8665446399999999</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4398535679999998</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1278242815999997</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9533891379199995</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9440669655039997</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.1328803586047984</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.5594564303257581</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.27134771639091</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.325617259669093</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.790740711602908</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.748888853923489</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.29866662470819</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25.558399949649825</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30.670079939579793</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4241,64 +2594,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.2</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.44</c:v>
+                  <c:v>1.1519999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.728</c:v>
+                  <c:v>1.3824000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0735999999999999</c:v>
+                  <c:v>1.6588799999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4883199999999999</c:v>
+                  <c:v>1.990656</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9859839999999997</c:v>
+                  <c:v>2.3887871999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5831807999999996</c:v>
+                  <c:v>2.8665446399999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.2998169599999994</c:v>
+                  <c:v>3.4398535679999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.1597803519999994</c:v>
+                  <c:v>4.1278242815999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.1917364223999991</c:v>
+                  <c:v>4.9533891379199995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.4300837068799988</c:v>
+                  <c:v>5.9440669655039997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.9161004482559978</c:v>
+                  <c:v>7.1328803586047984</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.699320537907198</c:v>
+                  <c:v>8.5594564303257581</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.839184645488636</c:v>
+                  <c:v>10.27134771639091</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.407021574586365</c:v>
+                  <c:v>12.325617259669093</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.488425889503635</c:v>
+                  <c:v>14.790740711602908</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.186111067404362</c:v>
+                  <c:v>17.748888853923489</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26.623333280885234</c:v>
+                  <c:v>21.29866662470819</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31.947999937062281</c:v>
+                  <c:v>25.558399949649825</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38.337599924474738</c:v>
+                  <c:v>30.670079939579793</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4505,7 +2858,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5083,88 +3436,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>0.984375</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.107421875</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.245849609375</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.401580810546875</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5767784118652344</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7738757133483887</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9956101775169373</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2450614497065544</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5256941309198737</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8414058972848579</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.1965816344454652</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5961543387511483</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.0456736310950419</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.5513828349819221</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.1203056893546623</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.7603439005239956</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.4803868880894946</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.2904352491006819</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.2017396552382653</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.2269571121430491</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.380326751160931</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.677867595056046</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13.137601044438053</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.77980117499281</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16.627276321866912</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18.705685862100275</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.043896594862812</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>23.674383669220664</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5290,90 +3643,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>1.125</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.265625</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.423828125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.601806640625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.802032470703125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0272865295410156</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.2806973457336426</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5657845139503479</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.8865075781941414</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.2473210254684091</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.6532361536519602</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.1098906728584552</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.6236270069657621</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.2015803828364824</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.8517779306910427</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.583250172027423</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.4061564435308505</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.3319259989722081</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.3734167488437325</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10.5450938424492</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11.86323057275535</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>13.346134394349768</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15.01440119364349</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16.891201342848927</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>19.002601510705041</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>21.37792669954317</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>24.05016753698607</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27.056438479109328</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5579,7 +3848,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6011,13 +4280,13 @@
                   <c:v>17.0859375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.62890625</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.443359375</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57.6650390625</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6224,7 +4493,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6510,7 +4779,7 @@
                   <c:v>97.30975341796875</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>145.96463012695313</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6628,13 +4897,13 @@
                   <c:v>86.49755859375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>129.746337890625</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>194.6195068359375</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>291.92926025390625</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6941,7 +5210,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7008,10 +5277,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Finding upper bound eq'!$A$106:$A$116</c:f>
+              <c:f>'Finding upper bound eq'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -7044,16 +5313,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Finding upper bound eq'!$B$106:$B$116</c:f>
+              <c:f>'Finding upper bound eq'!$B$4:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -7079,13 +5351,16 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75</c:v>
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7093,7 +5368,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3D91-476C-9A29-2B36C314F1AC}"/>
+              <c16:uniqueId val="{00000000-DA53-4131-A72A-204BD2893CB0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7114,10 +5389,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Finding upper bound eq'!$A$106:$A$116</c:f>
+              <c:f>'Finding upper bound eq'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -7150,16 +5425,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Finding upper bound eq'!$C$106:$C$116</c:f>
+              <c:f>'Finding upper bound eq'!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -7185,13 +5463,13 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7199,7 +5477,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3D91-476C-9A29-2B36C314F1AC}"/>
+              <c16:uniqueId val="{00000001-DA53-4131-A72A-204BD2893CB0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7220,10 +5498,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Finding upper bound eq'!$A$106:$A$116</c:f>
+              <c:f>'Finding upper bound eq'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -7256,48 +5534,54 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Finding upper bound eq'!$D$106:$D$116</c:f>
+              <c:f>'Finding upper bound eq'!$D$4:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.125</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6875</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.53125</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.796875</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6953125</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.54296875</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.814453125</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.2216796875</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.83251953125</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.248779296875</c:v>
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7305,7 +5589,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3D91-476C-9A29-2B36C314F1AC}"/>
+              <c16:uniqueId val="{00000002-DA53-4131-A72A-204BD2893CB0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7326,10 +5610,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Finding upper bound eq'!$A$106:$A$116</c:f>
+              <c:f>'Finding upper bound eq'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -7362,48 +5646,54 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Finding upper bound eq'!$E$106:$E$116</c:f>
+              <c:f>'Finding upper bound eq'!$E$4:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.375</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0625</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.59375</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.390625</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.0859375</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.62890625</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.443359375</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57.6650390625</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>86.49755859375</c:v>
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7411,7 +5701,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3D91-476C-9A29-2B36C314F1AC}"/>
+              <c16:uniqueId val="{00000003-DA53-4131-A72A-204BD2893CB0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7432,10 +5722,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Finding upper bound eq'!$A$106:$A$116</c:f>
+              <c:f>'Finding upper bound eq'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -7468,48 +5758,54 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Finding upper bound eq'!$F$106:$F$116</c:f>
+              <c:f>'Finding upper bound eq'!$F$4:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1.0499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>1.575</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>2.3624999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>3.5437499999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>5.3156249999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64</c:v>
+                  <c:v>7.9734374999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75</c:v>
+                  <c:v>11.960156249999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75</c:v>
+                  <c:v>17.940234374999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75</c:v>
+                  <c:v>26.910351562499997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75</c:v>
+                  <c:v>40.365527343749996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75</c:v>
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7517,7 +5813,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3D91-476C-9A29-2B36C314F1AC}"/>
+              <c16:uniqueId val="{00000004-DA53-4131-A72A-204BD2893CB0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7530,11 +5826,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="475859712"/>
-        <c:axId val="475850856"/>
+        <c:axId val="346105280"/>
+        <c:axId val="346110528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="475859712"/>
+        <c:axId val="346105280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7577,7 +5873,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475850856"/>
+        <c:crossAx val="346110528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7585,7 +5881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="475850856"/>
+        <c:axId val="346110528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7636,7 +5932,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475859712"/>
+        <c:crossAx val="346105280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7717,46 +6013,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8076,46 +6332,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -8632,7 +6848,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9148,7 +7364,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9664,7 +7880,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10180,7 +8396,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10696,7 +8912,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11212,7 +9428,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11728,1039 +9944,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13393,42 +10577,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC3181A-D9F8-4EC1-AC0F-0A24C5FC1FE0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>18</xdr:row>
@@ -13457,7 +10605,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13493,7 +10641,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13529,7 +10677,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13546,7 +10694,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13565,7 +10713,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13573,23 +10721,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0411CDF-B09E-4F43-AB2B-A824D804921C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EACBF05C-617A-4583-807B-20EB58931FB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13601,43 +10749,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1CDE3B-B60D-48DC-BADB-22D9B416AC1B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14754,2395 +11866,2338 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H135" sqref="H135"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>(7/10)*((1+(1/2))^A4)</f>
+        <v>1.0499999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F13" si="0">(7/10)*((1+(1/2))^A5)</f>
+        <v>1.575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>2.3624999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>3.5437499999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>5.3156249999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>7.9734374999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>11.960156249999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>17.940234374999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>26.910351562499997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>40.365527343749996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>28</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>43</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f>(8/10)*((1+(1/5))^A19)</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E38" si="1">(8/10)*((1+(1/5))^A20)</f>
+        <v>1.1519999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1.3824000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1.6588799999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>1.990656</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>2.3887871999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>2.8665446399999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>3.4398535679999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>4.1278242815999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>4.9533891379199995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>5.9440669655039997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>7.1328803586047984</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>8.5594564303257581</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>13</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>10.27134771639091</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>12.325617259669093</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>18</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>14.790740711602908</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>17.748888853923489</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>18</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>21.29866662470819</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>19</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>25.558399949649825</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>20</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>30.670079939579793</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>11</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>12</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>13</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>14</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>15</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>16</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>17</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>18</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>19</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>20</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>21</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>22</v>
+      </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>23</v>
+      </c>
+      <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>24</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>15</v>
+      </c>
+      <c r="D65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>25</v>
+      </c>
+      <c r="B66">
+        <v>15</v>
+      </c>
+      <c r="C66">
+        <v>15</v>
+      </c>
+      <c r="D66">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>26</v>
+      </c>
+      <c r="B67">
+        <v>15</v>
+      </c>
+      <c r="C67">
+        <v>15</v>
+      </c>
+      <c r="D67">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>27</v>
+      </c>
+      <c r="B68">
+        <v>15</v>
+      </c>
+      <c r="C68">
+        <v>15</v>
+      </c>
+      <c r="D68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>28</v>
+      </c>
+      <c r="B69">
+        <v>15</v>
+      </c>
+      <c r="D69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <f>(1-(1/2))*((1+(1/2))^A73)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E73">
+        <f>(1+(1/2))^A73</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ref="D74:D82" si="2">(1-(1/2))*((1+(1/2))^A74)</f>
+        <v>1.125</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ref="E74:E82" si="3">(1+(1/2))^A74</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1.25</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="2"/>
+        <v>1.6875</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="3"/>
+        <v>3.375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>4</v>
+      </c>
+      <c r="B76">
+        <v>1.5</v>
+      </c>
+      <c r="C76">
+        <v>1.75</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="2"/>
+        <v>2.53125</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="3"/>
+        <v>5.0625</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>5</v>
+      </c>
+      <c r="B77">
+        <v>2.25</v>
+      </c>
+      <c r="C77">
+        <v>2.75</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="2"/>
+        <v>3.796875</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="3"/>
+        <v>7.59375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>6</v>
+      </c>
+      <c r="B78">
+        <v>3.5</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="2"/>
+        <v>5.6953125</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="3"/>
+        <v>11.390625</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>7</v>
+      </c>
+      <c r="B79">
+        <v>5.25</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="2"/>
+        <v>8.54296875</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="3"/>
+        <v>17.0859375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>8</v>
+      </c>
+      <c r="B80">
+        <v>9.5</v>
+      </c>
+      <c r="C80">
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="2"/>
+        <v>12.814453125</v>
+      </c>
+      <c r="E80">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>9</v>
+      </c>
+      <c r="B81">
+        <v>25</v>
+      </c>
+      <c r="C81">
+        <v>23</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="2"/>
+        <v>19.2216796875</v>
+      </c>
+      <c r="E81">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>10</v>
+      </c>
+      <c r="B82">
+        <v>25</v>
+      </c>
+      <c r="C82">
+        <v>25</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="2"/>
+        <v>28.83251953125</v>
+      </c>
+      <c r="E82">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" t="s">
+        <v>32</v>
+      </c>
+      <c r="D85" t="s">
+        <v>30</v>
+      </c>
+      <c r="E85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <f>(1-(1/2))*((1+(1/2))^A86)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E86">
+        <f>(1+(1/2))^A86</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ref="D87:D98" si="4">(1-(1/2))*((1+(1/2))^A87)</f>
+        <v>1.125</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ref="E87:E96" si="5">(1+(1/2))^A87</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="4"/>
+        <v>1.6875</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="5"/>
+        <v>3.375</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="B89">
+        <v>1.5</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="4"/>
+        <v>2.53125</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="5"/>
+        <v>5.0625</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>5</v>
+      </c>
+      <c r="B90">
+        <v>2.5</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="4"/>
+        <v>3.796875</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="5"/>
+        <v>7.59375</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>6</v>
+      </c>
+      <c r="B91">
+        <v>3.5</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="4"/>
+        <v>5.6953125</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="5"/>
+        <v>11.390625</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>7</v>
+      </c>
+      <c r="B92">
+        <v>5.5</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="4"/>
+        <v>8.54296875</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="5"/>
+        <v>17.0859375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>8</v>
+      </c>
+      <c r="B93">
+        <v>8</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="4"/>
+        <v>12.814453125</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="5"/>
+        <v>25.62890625</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>9</v>
+      </c>
+      <c r="B94">
+        <v>12</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="4"/>
+        <v>19.2216796875</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="5"/>
+        <v>38.443359375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>10</v>
+      </c>
+      <c r="B95">
+        <v>18</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="4"/>
+        <v>28.83251953125</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="5"/>
+        <v>57.6650390625</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>11</v>
+      </c>
+      <c r="B96">
+        <v>27</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="4"/>
+        <v>43.248779296875</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="5"/>
+        <v>86.49755859375</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>12</v>
+      </c>
+      <c r="B97">
+        <v>40.5</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="4"/>
+        <v>64.8731689453125</v>
+      </c>
+      <c r="E97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>13</v>
+      </c>
+      <c r="B98">
+        <v>78.5</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="4"/>
+        <v>97.30975341796875</v>
+      </c>
+      <c r="E98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>14</v>
+      </c>
+      <c r="B99">
+        <v>100</v>
+      </c>
+      <c r="D99">
+        <v>100</v>
+      </c>
+      <c r="E99">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>3</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>4</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>5</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>6</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>7</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>8</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>9</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>10</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>11</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>12</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>13</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>14</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>15</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>16</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>17</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>18</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>19</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>20</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>21</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>22</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>23</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>24</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>25</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>26</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>27</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>28</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>29</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>30</v>
+      </c>
+      <c r="B133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>31</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>32</v>
+      </c>
+      <c r="B135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>33</v>
+      </c>
+      <c r="B136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>34</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>35</v>
+      </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>36</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>37</v>
+      </c>
+      <c r="B140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>38</v>
+      </c>
+      <c r="B141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>39</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>40</v>
+      </c>
+      <c r="B143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>41</v>
+      </c>
+      <c r="B144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>42</v>
+      </c>
+      <c r="B145">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>43</v>
+      </c>
+      <c r="B146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>44</v>
+      </c>
+      <c r="B147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>45</v>
+      </c>
+      <c r="B148">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>46</v>
+      </c>
+      <c r="B149">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>47</v>
+      </c>
+      <c r="B150">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>48</v>
+      </c>
+      <c r="B151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>49</v>
+      </c>
+      <c r="B152">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>50</v>
+      </c>
+      <c r="B153">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>51</v>
+      </c>
+      <c r="B154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>52</v>
+      </c>
+      <c r="B155">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>B2*3</f>
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f>D2-C2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D21" si="0">B3*3</f>
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E21" si="1">D3-C3</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <f>(1/2)*(1.5^A4)</f>
-        <v>0.75</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="E4">
-        <f>1.5^A4</f>
-        <v>1.5</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
         <v>2</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f>(1/2)*(1.5^A5)</f>
-        <v>1.125</v>
-      </c>
-      <c r="E5">
-        <f>1.5^A5</f>
-        <v>2.25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <f>(1/2)*(1.5^A6)</f>
-        <v>1.6875</v>
-      </c>
-      <c r="E6">
-        <f>1.5^A6</f>
-        <v>3.375</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <f>(1/2)*(1.5^A7)</f>
-        <v>2.53125</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="E7">
-        <f>1.5^A7</f>
-        <v>5.0625</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <f>(1/2)*(1.5^A8)</f>
-        <v>3.796875</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="E8">
-        <f>1.5^A8</f>
-        <v>7.59375</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <f>(1/2)*(1.5^A9)</f>
-        <v>5.6953125</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="E9">
-        <f>1.5^A9</f>
-        <v>11.390625</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D10">
-        <f>(1/2)*(1.5^A10)</f>
-        <v>8.54296875</v>
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
       <c r="E10">
-        <f>1.5^A10</f>
-        <v>17.0859375</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="D11">
-        <f>(1/2)*(1.5^A11)</f>
-        <v>12.814453125</v>
+        <f t="shared" si="0"/>
+        <v>93</v>
       </c>
       <c r="E11">
-        <f>1.5^A11</f>
-        <v>25.62890625</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="D12">
-        <f>(1/2)*(1.5^A12)</f>
-        <v>19.2216796875</v>
+        <f t="shared" si="0"/>
+        <v>141</v>
       </c>
       <c r="E12">
-        <f>1.5^A12</f>
-        <v>38.443359375</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C13">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="D13">
-        <f>(1/2)*(1.5^A13)</f>
-        <v>28.83251953125</v>
+        <f t="shared" si="0"/>
+        <v>210</v>
       </c>
       <c r="E13">
-        <f>1.5^A13</f>
-        <v>57.6650390625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1">
-        <v>38</v>
-      </c>
-      <c r="C14" s="3">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="D14">
-        <f>(1/2)*(1.5^A14)</f>
-        <v>43.248779296875</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E14">
-        <f>1.5^A14</f>
-        <v>86.49755859375</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <f>(1/2)*(1.5^A15)</f>
-        <v>64.8731689453125</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E15">
-        <f>1.5^A15</f>
-        <v>129.746337890625</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <f>(1-(1/5))*((1+(1/5))^A19)</f>
-        <v>0.96</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E19">
-        <f>(1+(1/5))^A19</f>
-        <v>1.2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:D38" si="0">(1-(1/5))*((1+(1/5))^A20)</f>
-        <v>1.1519999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:E38" si="1">(1+(1/5))^A20</f>
-        <v>1.44</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>1.3824000000000001</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>1.728</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>4</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>1.6588799999999999</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>2.0735999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>1.990656</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>2.4883199999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>6</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>2.3887871999999999</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>2.9859839999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>7</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>2.8665446399999999</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>3.5831807999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>8</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>3.4398535679999998</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>4.2998169599999994</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>9</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>4.1278242815999997</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>5.1597803519999994</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>10</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>4.9533891379199995</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>6.1917364223999991</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>11</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>5.9440669655039997</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>7.4300837068799988</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>12</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>7.1328803586047984</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="1"/>
-        <v>8.9161004482559978</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>13</v>
-      </c>
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>6</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>8.5594564303257581</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="1"/>
-        <v>10.699320537907198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>14</v>
-      </c>
-      <c r="B32">
-        <v>6</v>
-      </c>
-      <c r="C32">
-        <v>7</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>10.27134771639091</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="1"/>
-        <v>12.839184645488636</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>15</v>
-      </c>
-      <c r="B33">
-        <v>7</v>
-      </c>
-      <c r="C33">
-        <v>8</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>12.325617259669093</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="1"/>
-        <v>15.407021574586365</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>16</v>
-      </c>
-      <c r="B34">
-        <v>8</v>
-      </c>
-      <c r="C34">
-        <v>12</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>14.790740711602908</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>18.488425889503635</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>17</v>
-      </c>
-      <c r="B35">
-        <v>12</v>
-      </c>
-      <c r="C35">
-        <v>20</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>17.748888853923489</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="1"/>
-        <v>22.186111067404362</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>18</v>
-      </c>
-      <c r="B36">
-        <v>20</v>
-      </c>
-      <c r="C36">
-        <v>20</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>21.29866662470819</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="1"/>
-        <v>26.623333280885234</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>19</v>
-      </c>
-      <c r="B37">
-        <v>20</v>
-      </c>
-      <c r="C37">
-        <v>20</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>25.558399949649825</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
-        <v>31.947999937062281</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>20</v>
-      </c>
-      <c r="B38">
-        <v>20</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>30.670079939579793</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="1"/>
-        <v>38.337599924474738</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <f>(1-(1/8))*((1+(1/8))^A42)</f>
-        <v>0.984375</v>
-      </c>
-      <c r="E42">
-        <f>(1+(1/8))^A42</f>
-        <v>1.125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>2</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <f t="shared" ref="D43:D69" si="2">(1-(1/8))*((1+(1/8))^A43)</f>
-        <v>1.107421875</v>
-      </c>
-      <c r="E43">
-        <f t="shared" ref="E43:E69" si="3">(1+(1/8))^A43</f>
-        <v>1.265625</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>3</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="2"/>
-        <v>1.245849609375</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="3"/>
-        <v>1.423828125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>4</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="2"/>
-        <v>1.401580810546875</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="3"/>
-        <v>1.601806640625</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>5</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="2"/>
-        <v>1.5767784118652344</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="3"/>
-        <v>1.802032470703125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>6</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="2"/>
-        <v>1.7738757133483887</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="3"/>
-        <v>2.0272865295410156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>7</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="2"/>
-        <v>1.9956101775169373</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="3"/>
-        <v>2.2806973457336426</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>8</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="2"/>
-        <v>2.2450614497065544</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="3"/>
-        <v>2.5657845139503479</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>9</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="2"/>
-        <v>2.5256941309198737</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="3"/>
-        <v>2.8865075781941414</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>10</v>
-      </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="2"/>
-        <v>2.8414058972848579</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="3"/>
-        <v>3.2473210254684091</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>11</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="2"/>
-        <v>3.1965816344454652</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="3"/>
-        <v>3.6532361536519602</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>12</v>
-      </c>
-      <c r="B53">
-        <v>2</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="2"/>
-        <v>3.5961543387511483</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="3"/>
-        <v>4.1098906728584552</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>13</v>
-      </c>
-      <c r="B54">
-        <v>2</v>
-      </c>
-      <c r="C54">
-        <v>3</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="2"/>
-        <v>4.0456736310950419</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="3"/>
-        <v>4.6236270069657621</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>14</v>
-      </c>
-      <c r="B55">
-        <v>3</v>
-      </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="2"/>
-        <v>4.5513828349819221</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="3"/>
-        <v>5.2015803828364824</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>15</v>
-      </c>
-      <c r="B56">
-        <v>3</v>
-      </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="2"/>
-        <v>5.1203056893546623</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="3"/>
-        <v>5.8517779306910427</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>16</v>
-      </c>
-      <c r="B57">
-        <v>3</v>
-      </c>
-      <c r="C57">
-        <v>4</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="2"/>
-        <v>5.7603439005239956</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="3"/>
-        <v>6.583250172027423</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>17</v>
-      </c>
-      <c r="B58">
-        <v>4</v>
-      </c>
-      <c r="C58">
-        <v>4</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="2"/>
-        <v>6.4803868880894946</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="3"/>
-        <v>7.4061564435308505</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>18</v>
-      </c>
-      <c r="B59">
-        <v>4</v>
-      </c>
-      <c r="C59">
-        <v>5</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="2"/>
-        <v>7.2904352491006819</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="3"/>
-        <v>8.3319259989722081</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>19</v>
-      </c>
-      <c r="B60">
-        <v>5</v>
-      </c>
-      <c r="C60">
-        <v>5</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="2"/>
-        <v>8.2017396552382653</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="3"/>
-        <v>9.3734167488437325</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>20</v>
-      </c>
-      <c r="B61">
-        <v>5</v>
-      </c>
-      <c r="C61">
-        <v>6</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="2"/>
-        <v>9.2269571121430491</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="3"/>
-        <v>10.5450938424492</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>21</v>
-      </c>
-      <c r="B62">
-        <v>6</v>
-      </c>
-      <c r="C62">
-        <v>7</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="2"/>
-        <v>10.380326751160931</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="3"/>
-        <v>11.86323057275535</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>22</v>
-      </c>
-      <c r="B63">
-        <v>7</v>
-      </c>
-      <c r="C63">
-        <v>8</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="2"/>
-        <v>11.677867595056046</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="3"/>
-        <v>13.346134394349768</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>23</v>
-      </c>
-      <c r="B64">
-        <v>8</v>
-      </c>
-      <c r="C64">
-        <v>10</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="2"/>
-        <v>13.137601044438053</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="3"/>
-        <v>15.01440119364349</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>24</v>
-      </c>
-      <c r="B65">
-        <v>10</v>
-      </c>
-      <c r="C65">
-        <v>15</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="2"/>
-        <v>14.77980117499281</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="3"/>
-        <v>16.891201342848927</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>25</v>
-      </c>
-      <c r="B66">
-        <v>15</v>
-      </c>
-      <c r="C66">
-        <v>15</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="2"/>
-        <v>16.627276321866912</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="3"/>
-        <v>19.002601510705041</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>26</v>
-      </c>
-      <c r="B67">
-        <v>15</v>
-      </c>
-      <c r="C67">
-        <v>15</v>
-      </c>
-      <c r="D67">
-        <f t="shared" si="2"/>
-        <v>18.705685862100275</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="3"/>
-        <v>21.37792669954317</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>27</v>
-      </c>
-      <c r="B68">
-        <v>15</v>
-      </c>
-      <c r="C68">
-        <v>15</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="2"/>
-        <v>21.043896594862812</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="3"/>
-        <v>24.05016753698607</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>28</v>
-      </c>
-      <c r="B69">
-        <v>15</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="2"/>
-        <v>23.674383669220664</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="3"/>
-        <v>27.056438479109328</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" t="s">
-        <v>36</v>
-      </c>
-      <c r="D72" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>1</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <f>(1-(1/2))*((1+(1/2))^A73)</f>
-        <v>0.75</v>
-      </c>
-      <c r="E73">
-        <f>(1+(1/2))^A73</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>2</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <f t="shared" ref="D74:D82" si="4">(1-(1/2))*((1+(1/2))^A74)</f>
-        <v>1.125</v>
-      </c>
-      <c r="E74">
-        <f t="shared" ref="E74:E82" si="5">(1+(1/2))^A74</f>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>3</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75">
-        <v>1.25</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="4"/>
-        <v>1.6875</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="5"/>
-        <v>3.375</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>4</v>
-      </c>
-      <c r="B76">
-        <v>1.5</v>
-      </c>
-      <c r="C76">
-        <v>1.75</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="4"/>
-        <v>2.53125</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="5"/>
-        <v>5.0625</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>5</v>
-      </c>
-      <c r="B77">
-        <v>2.25</v>
-      </c>
-      <c r="C77">
-        <v>2.75</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="4"/>
-        <v>3.796875</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="5"/>
-        <v>7.59375</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>6</v>
-      </c>
-      <c r="B78">
-        <v>3.5</v>
-      </c>
-      <c r="C78">
-        <v>4</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="4"/>
-        <v>5.6953125</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="5"/>
-        <v>11.390625</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>7</v>
-      </c>
-      <c r="B79">
-        <v>5.25</v>
-      </c>
-      <c r="C79">
-        <v>6</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="4"/>
-        <v>8.54296875</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="5"/>
-        <v>17.0859375</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>8</v>
-      </c>
-      <c r="B80">
-        <v>9.5</v>
-      </c>
-      <c r="C80">
-        <v>9</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="4"/>
-        <v>12.814453125</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="5"/>
-        <v>25.62890625</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>9</v>
-      </c>
-      <c r="B81">
-        <v>25</v>
-      </c>
-      <c r="C81">
-        <v>23</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="4"/>
-        <v>19.2216796875</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="5"/>
-        <v>38.443359375</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>10</v>
-      </c>
-      <c r="B82">
-        <v>25</v>
-      </c>
-      <c r="C82">
-        <v>25</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="4"/>
-        <v>28.83251953125</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="5"/>
-        <v>57.6650390625</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85" t="s">
-        <v>36</v>
-      </c>
-      <c r="D85" t="s">
-        <v>34</v>
-      </c>
-      <c r="E85" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>1</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <f>(1-(1/2))*((1+(1/2))^A86)</f>
-        <v>0.75</v>
-      </c>
-      <c r="E86">
-        <f>(1+(1/2))^A86</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>2</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <f t="shared" ref="D87:D99" si="6">(1-(1/2))*((1+(1/2))^A87)</f>
-        <v>1.125</v>
-      </c>
-      <c r="E87">
-        <f t="shared" ref="E87:E99" si="7">(1+(1/2))^A87</f>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>3</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="6"/>
-        <v>1.6875</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="7"/>
-        <v>3.375</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>4</v>
-      </c>
-      <c r="B89">
-        <v>1.5</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="6"/>
-        <v>2.53125</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="7"/>
-        <v>5.0625</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>5</v>
-      </c>
-      <c r="B90">
-        <v>2.5</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="6"/>
-        <v>3.796875</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="7"/>
-        <v>7.59375</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>6</v>
-      </c>
-      <c r="B91">
-        <v>3.5</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="6"/>
-        <v>5.6953125</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="7"/>
-        <v>11.390625</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>7</v>
-      </c>
-      <c r="B92">
-        <v>5.5</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="6"/>
-        <v>8.54296875</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="7"/>
-        <v>17.0859375</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>8</v>
-      </c>
-      <c r="B93">
-        <v>8</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="6"/>
-        <v>12.814453125</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="7"/>
-        <v>25.62890625</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>9</v>
-      </c>
-      <c r="B94">
-        <v>12</v>
-      </c>
-      <c r="D94">
-        <f t="shared" si="6"/>
-        <v>19.2216796875</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="7"/>
-        <v>38.443359375</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>10</v>
-      </c>
-      <c r="B95">
-        <v>18</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="6"/>
-        <v>28.83251953125</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="7"/>
-        <v>57.6650390625</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>11</v>
-      </c>
-      <c r="B96">
-        <v>27</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="6"/>
-        <v>43.248779296875</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="7"/>
-        <v>86.49755859375</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>12</v>
-      </c>
-      <c r="B97">
-        <v>40.5</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="6"/>
-        <v>64.8731689453125</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="7"/>
-        <v>129.746337890625</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>13</v>
-      </c>
-      <c r="B98">
-        <v>78.5</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="6"/>
-        <v>97.30975341796875</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="7"/>
-        <v>194.6195068359375</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>14</v>
-      </c>
-      <c r="B99">
-        <v>100</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="6"/>
-        <v>145.96463012695313</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="7"/>
-        <v>291.92926025390625</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>2</v>
-      </c>
-      <c r="B105" t="s">
-        <v>18</v>
-      </c>
-      <c r="C105" t="s">
-        <v>36</v>
-      </c>
-      <c r="D105" t="s">
-        <v>32</v>
-      </c>
-      <c r="E105" t="s">
-        <v>33</v>
-      </c>
-      <c r="F105" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>1</v>
-      </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106">
-        <f>(1-(1/2))*((1+(1/2))^A106)</f>
-        <v>0.75</v>
-      </c>
-      <c r="E106">
-        <f>(1+(1/2))^A106</f>
-        <v>1.5</v>
-      </c>
-      <c r="F106">
-        <f>2^A106</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>2</v>
-      </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107">
-        <f t="shared" ref="D107:D116" si="8">(1-(1/2))*((1+(1/2))^A107)</f>
-        <v>1.125</v>
-      </c>
-      <c r="E107">
-        <f t="shared" ref="E107:E116" si="9">(1+(1/2))^A107</f>
-        <v>2.25</v>
-      </c>
-      <c r="F107">
-        <f t="shared" ref="F107:F116" si="10">2^A107</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>3</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-      <c r="C108">
-        <v>2</v>
-      </c>
-      <c r="D108">
-        <f t="shared" si="8"/>
-        <v>1.6875</v>
-      </c>
-      <c r="E108">
-        <f t="shared" si="9"/>
-        <v>3.375</v>
-      </c>
-      <c r="F108">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>4</v>
-      </c>
-      <c r="B109">
-        <v>2</v>
-      </c>
-      <c r="C109">
-        <v>3</v>
-      </c>
-      <c r="D109">
-        <f t="shared" si="8"/>
-        <v>2.53125</v>
-      </c>
-      <c r="E109">
-        <f t="shared" si="9"/>
-        <v>5.0625</v>
-      </c>
-      <c r="F109">
-        <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>5</v>
-      </c>
-      <c r="B110">
-        <v>3</v>
-      </c>
-      <c r="C110">
-        <v>4</v>
-      </c>
-      <c r="D110">
-        <f t="shared" si="8"/>
-        <v>3.796875</v>
-      </c>
-      <c r="E110">
-        <f t="shared" si="9"/>
-        <v>7.59375</v>
-      </c>
-      <c r="F110">
-        <f t="shared" si="10"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>6</v>
-      </c>
-      <c r="B111">
-        <v>4</v>
-      </c>
-      <c r="C111">
-        <v>6</v>
-      </c>
-      <c r="D111">
-        <f t="shared" si="8"/>
-        <v>5.6953125</v>
-      </c>
-      <c r="E111">
-        <f t="shared" si="9"/>
-        <v>11.390625</v>
-      </c>
-      <c r="F111">
-        <f t="shared" si="10"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>7</v>
-      </c>
-      <c r="B112">
-        <v>6</v>
-      </c>
-      <c r="C112">
-        <v>9</v>
-      </c>
-      <c r="D112">
-        <f t="shared" si="8"/>
-        <v>8.54296875</v>
-      </c>
-      <c r="E112">
-        <f t="shared" si="9"/>
-        <v>17.0859375</v>
-      </c>
-      <c r="F112">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>8</v>
-      </c>
-      <c r="B113">
-        <v>9</v>
-      </c>
-      <c r="C113">
-        <v>14</v>
-      </c>
-      <c r="D113">
-        <f t="shared" si="8"/>
-        <v>12.814453125</v>
-      </c>
-      <c r="E113">
-        <f t="shared" si="9"/>
-        <v>25.62890625</v>
-      </c>
-      <c r="F113">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>9</v>
-      </c>
-      <c r="B114">
-        <v>48</v>
-      </c>
-      <c r="C114">
-        <v>34</v>
-      </c>
-      <c r="D114">
-        <f t="shared" si="8"/>
-        <v>19.2216796875</v>
-      </c>
-      <c r="E114">
-        <f t="shared" si="9"/>
-        <v>38.443359375</v>
-      </c>
-      <c r="F114">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>10</v>
-      </c>
-      <c r="B115">
-        <v>75</v>
-      </c>
-      <c r="C115">
-        <v>75</v>
-      </c>
-      <c r="D115">
-        <f t="shared" si="8"/>
-        <v>28.83251953125</v>
-      </c>
-      <c r="E115">
-        <f t="shared" si="9"/>
-        <v>57.6650390625</v>
-      </c>
-      <c r="F115">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>11</v>
-      </c>
-      <c r="B116">
-        <v>75</v>
-      </c>
-      <c r="C116">
-        <v>75</v>
-      </c>
-      <c r="D116">
-        <f t="shared" si="8"/>
-        <v>43.248779296875</v>
-      </c>
-      <c r="E116">
-        <f t="shared" si="9"/>
-        <v>86.49755859375</v>
-      </c>
-      <c r="F116">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>2</v>
-      </c>
-      <c r="B119" t="s">
-        <v>18</v>
-      </c>
-      <c r="C119" t="s">
-        <v>36</v>
-      </c>
-      <c r="D119" t="s">
-        <v>26</v>
-      </c>
-      <c r="E119" t="s">
-        <v>25</v>
-      </c>
-      <c r="F119" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>1</v>
-      </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-      <c r="D120">
-        <f>(1-(1/5))*((1+(1/5))^A120)</f>
-        <v>0.96</v>
-      </c>
-      <c r="E120">
-        <f>(1+(1/5))^A120</f>
-        <v>1.2</v>
-      </c>
-      <c r="F120">
-        <f>(1+(1/4))^A120</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>2</v>
-      </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-      <c r="D121">
-        <f t="shared" ref="D121:D136" si="11">(1-(1/5))*((1+(1/5))^A121)</f>
-        <v>1.1519999999999999</v>
-      </c>
-      <c r="E121">
-        <f t="shared" ref="E121:E136" si="12">(1+(1/5))^A121</f>
-        <v>1.44</v>
-      </c>
-      <c r="F121">
-        <f t="shared" ref="F121:F136" si="13">(1+(1/4))^A121</f>
-        <v>1.5625</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>3</v>
-      </c>
-      <c r="B122">
-        <v>1</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122">
-        <f t="shared" si="11"/>
-        <v>1.3824000000000001</v>
-      </c>
-      <c r="E122">
-        <f t="shared" si="12"/>
-        <v>1.728</v>
-      </c>
-      <c r="F122">
-        <f t="shared" si="13"/>
-        <v>1.953125</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>4</v>
-      </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123">
-        <f t="shared" si="11"/>
-        <v>1.6588799999999999</v>
-      </c>
-      <c r="E123">
-        <f t="shared" si="12"/>
-        <v>2.0735999999999999</v>
-      </c>
-      <c r="F123">
-        <f t="shared" si="13"/>
-        <v>2.44140625</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>5</v>
-      </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124">
-        <f t="shared" si="11"/>
-        <v>1.990656</v>
-      </c>
-      <c r="E124">
-        <f t="shared" si="12"/>
-        <v>2.4883199999999999</v>
-      </c>
-      <c r="F124">
-        <f t="shared" si="13"/>
-        <v>3.0517578125</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>6</v>
-      </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-      <c r="C125">
-        <v>2</v>
-      </c>
-      <c r="D125">
-        <f t="shared" si="11"/>
-        <v>2.3887871999999999</v>
-      </c>
-      <c r="E125">
-        <f t="shared" si="12"/>
-        <v>2.9859839999999997</v>
-      </c>
-      <c r="F125">
-        <f t="shared" si="13"/>
-        <v>3.814697265625</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>7</v>
-      </c>
-      <c r="B126">
-        <v>2</v>
-      </c>
-      <c r="C126">
-        <v>2</v>
-      </c>
-      <c r="D126">
-        <f t="shared" si="11"/>
-        <v>2.8665446399999999</v>
-      </c>
-      <c r="E126">
-        <f t="shared" si="12"/>
-        <v>3.5831807999999996</v>
-      </c>
-      <c r="F126">
-        <f t="shared" si="13"/>
-        <v>4.76837158203125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>8</v>
-      </c>
-      <c r="B127">
-        <v>2</v>
-      </c>
-      <c r="C127">
-        <v>2</v>
-      </c>
-      <c r="D127">
-        <f t="shared" si="11"/>
-        <v>3.4398535679999998</v>
-      </c>
-      <c r="E127">
-        <f t="shared" si="12"/>
-        <v>4.2998169599999994</v>
-      </c>
-      <c r="F127">
-        <f t="shared" si="13"/>
-        <v>5.9604644775390625</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>9</v>
-      </c>
-      <c r="B128">
-        <v>2</v>
-      </c>
-      <c r="C128">
-        <v>3</v>
-      </c>
-      <c r="D128">
-        <f t="shared" si="11"/>
-        <v>4.1278242815999997</v>
-      </c>
-      <c r="E128">
-        <f t="shared" si="12"/>
-        <v>5.1597803519999994</v>
-      </c>
-      <c r="F128">
-        <f t="shared" si="13"/>
-        <v>7.4505805969238281</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>10</v>
-      </c>
-      <c r="B129">
-        <v>3</v>
-      </c>
-      <c r="C129">
-        <v>3</v>
-      </c>
-      <c r="D129">
-        <f t="shared" si="11"/>
-        <v>4.9533891379199995</v>
-      </c>
-      <c r="E129">
-        <f t="shared" si="12"/>
-        <v>6.1917364223999991</v>
-      </c>
-      <c r="F129">
-        <f t="shared" si="13"/>
-        <v>9.3132257461547852</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>11</v>
-      </c>
-      <c r="B130">
-        <v>3</v>
-      </c>
-      <c r="C130">
-        <v>4</v>
-      </c>
-      <c r="D130">
-        <f t="shared" si="11"/>
-        <v>5.9440669655039997</v>
-      </c>
-      <c r="E130">
-        <f t="shared" si="12"/>
-        <v>7.4300837068799988</v>
-      </c>
-      <c r="F130">
-        <f t="shared" si="13"/>
-        <v>11.641532182693481</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>12</v>
-      </c>
-      <c r="B131">
-        <v>4</v>
-      </c>
-      <c r="C131">
-        <v>5</v>
-      </c>
-      <c r="D131">
-        <f t="shared" si="11"/>
-        <v>7.1328803586047984</v>
-      </c>
-      <c r="E131">
-        <f t="shared" si="12"/>
-        <v>8.9161004482559978</v>
-      </c>
-      <c r="F131">
-        <f t="shared" si="13"/>
-        <v>14.551915228366852</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>13</v>
-      </c>
-      <c r="B132">
-        <v>18</v>
-      </c>
-      <c r="C132">
-        <v>13</v>
-      </c>
-      <c r="D132">
-        <f t="shared" si="11"/>
-        <v>8.5594564303257581</v>
-      </c>
-      <c r="E132">
-        <f t="shared" si="12"/>
-        <v>10.699320537907198</v>
-      </c>
-      <c r="F132">
-        <f t="shared" si="13"/>
-        <v>18.189894035458565</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>14</v>
-      </c>
-      <c r="B133">
-        <v>20</v>
-      </c>
-      <c r="C133">
-        <v>20</v>
-      </c>
-      <c r="D133">
-        <f t="shared" si="11"/>
-        <v>10.27134771639091</v>
-      </c>
-      <c r="E133">
-        <f t="shared" si="12"/>
-        <v>12.839184645488636</v>
-      </c>
-      <c r="F133">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>15</v>
-      </c>
-      <c r="B134">
-        <v>20</v>
-      </c>
-      <c r="C134">
-        <v>20</v>
-      </c>
-      <c r="D134">
-        <f t="shared" si="11"/>
-        <v>12.325617259669093</v>
-      </c>
-      <c r="E134">
-        <f t="shared" si="12"/>
-        <v>15.407021574586365</v>
-      </c>
-      <c r="F134">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>16</v>
-      </c>
-      <c r="B135">
-        <v>20</v>
-      </c>
-      <c r="C135">
-        <v>20</v>
-      </c>
-      <c r="D135">
-        <f t="shared" si="11"/>
-        <v>14.790740711602908</v>
-      </c>
-      <c r="E135">
-        <f t="shared" si="12"/>
-        <v>18.488425889503635</v>
-      </c>
-      <c r="F135">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>17</v>
-      </c>
-      <c r="B136">
-        <v>20</v>
-      </c>
-      <c r="C136">
-        <v>20</v>
-      </c>
-      <c r="D136">
-        <f t="shared" si="11"/>
-        <v>17.748888853923489</v>
-      </c>
-      <c r="E136">
-        <f t="shared" si="12"/>
-        <v>22.186111067404362</v>
-      </c>
-      <c r="F136">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>2</v>
-      </c>
-      <c r="B140" t="s">
-        <v>18</v>
-      </c>
-      <c r="C140" t="s">
-        <v>36</v>
-      </c>
-      <c r="D140" t="s">
-        <v>26</v>
-      </c>
-      <c r="E140" t="s">
-        <v>25</v>
-      </c>
-      <c r="F140" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>